--- a/Output2.xlsx
+++ b/Output2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,14 +504,8 @@
       <c r="G2" t="inlineStr">
         <is>
           <t>{
-  "kappa_flc": "56.21",
-  "lambda_flc": "&lt;3.08",
-  "kappa_lambda_ratio": "&gt;115.57",
-  "date_of_lab": "2024-02-22",
-  "evidence_sentences": [
-    "Latest Reference Range &amp; Units 02/22/24 09:20   Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)"
-  ],
-  "source_document": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586"
+  "title": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586",
+  "content": "chain restriction atypical plasma cells compatible with residual plasma cell neoplasm. Flow cytometry does not identify any abnormal immature B-cell population. An abnormal plasma cell population was identified by flow cytometry representing 0.02% of the total white cells and  having abnormal expression of CD19 (absent), CD38 (absent), CD45 (absent), CD56, and monoclonal kappa cytoplasmic light  chain restriction with normal expression of CD138. In total, plasma cells represent 0.04 % of the total white cells, including 0.02  % polytypic plasma cells. Suboptimal sample; normocellular bone marrow with erythroid predominance, reduction in myeloid lineage cells and with presence of atypical megakaryocytes. Myeloma FISH results on enriched CD138+ cells abnormal with 4 to 5 copies of 1q.  - PET/CT (2/21/2024): overall significant interval decrease in the FDG avidity of the hypermetabolic osseous lesions throughout the axial and appendicular skeleton, some of which have corresponding lytic lesions on CT scan. No new hypermetabolic osseous or extraosseous lesions.  - MRI brain (2/21/2024): compared to MRI brain on 1/26/2024, interval right progression of intraosseous foci of enhancement but with decreased dural/pachymeningeal soft tissue involvement. No evidence of involvement of the brain parenchyma. Similar to slightly increased bony involvement of the left orbital roof lesion but with decreased intraorbital involvement.  - MRI C-T spine (1/29/2024): diffuse metastases throughout the thoracic and lumbar spine with multiple pathologic compression fractures which are similar when compared with CT 1/25/2024. No new fractures. Mild soft tissue invasion of the right C4-C5 paraspinal musculature. No epidural or leptomeningeal enhancement.  - MRI lumbar spine (1/24/2024): diffusely heterogeneous marrow signal consistent with given history of multiple **Note De-Identified via Obfuscation** myeloma. Large ventral  epidural soft tissue tumor extending from L2 through L4, Bilsky grade 3. Resulting severe central stenosis at L3-4 with complete effacement of the thecal sac and clumping of the cauda equina nerve roots likely reflecting a component of arachnoiditis. Tumor also extends into the L3-4 and L4-5 neural foramina contributing to moderate to severe foraminal stenoses. Bilsky grade 1B ventral epidural soft tissue tumors at L1 and L2. Additional focal lesions in the partially seen T11 and T12 vertebral bodies.     Latest Reference Range &amp; Units 02/22/24 09:20   Kappa Free Light Chain 0.76 - 6.83 mg/dL 56.21 (H)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;3.08 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  &gt;115.57 (H)   Protein (Total) 6.0 - 8.2 g/dL 6.3   Albumin 3.5 - 4.9 g/dL 3.7   Alpha 1 0.1 - 0.3 g/dL 0.2   Alpha 2 0.3 - 0.8 g/dL 0.7   Beta 0.6 - 1.0 g/dL 0.6   Gamma 0.4 - 1.4 g/dL 1.1   Electrophoresis Interp: NORPAT  Monoclonal component present, see identification and quantification.  Normal gammaglobulins are depressed. !   Monoclonal 1 ID, Serum NMCL"
 }</t>
         </is>
       </c>
@@ -550,14 +544,8 @@
       <c r="G3" t="inlineStr">
         <is>
           <t>{
-  "kappa_flc": "203.94",
-  "lambda_flc": "&lt;0.15",
-  "kappa_lambda_ratio": "&gt;1456.71",
-  "date_of_lab": "2024-02-08",
-  "evidence_sentences": [
-    "Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22"
-  ],
-  "source_document": "2024-02-08_00:00:00.000_Progress_Notes_91427"
+  "title": "2024-02-08_00:00:00.000_Progress_Notes_91427",
+  "content": "38.0 - 50.0 %    MCV 92 81 - 98 fL    MCH 30.9 27.3 - 33.6 pg    MCHC 33.7 32.2 - 36.5 g/dL    Platelet Count 39 (L) 150 - 400 10*3/uL    RDW-CV 16.1 (H) 11.0 - 14.5 %    % Neutrophils 71 %    % Lymphocytes 20 %    % Monocytes 8 %    % Eosinophils 0 %    % Basophils 0 %    % Immature Granulocytes 1 %    Neutrophils 1.06 (L) 1.80 - 7.00 10*3/uL    Absolute Lymphocyte Count 0.30 (L) 1.00 - 4.80 10*3/uL    Monocytes 0.12 0.00 - 0.80 10*3/uL    Absolute Eosinophil Count 0.00 0.00 - 0.50 10*3/uL    Basophils 0.00 0.00 - 0.20 10*3/uL    Immature Granulocytes 0.01 0.00 - 0.05 10*3/uL    Nucleated RBC 0.00 0.00 10*3/uL    % Nucleated RBC 0 %   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 204 &lt;210 U/L   G6PD Quantitative   Result Value Ref Range    G6PD Quantitative 10.2 10.0 - 14.2 U/g[Hb]    Magnesium   Result Value Ref Range    Magnesium 1.6 (L) 1.8 - 2.4 mg/dL   Renal/Hepatic Function Panel   Result Value Ref Range    Sodium 132 (L) 135 - 145 meq/L    Potassium 4.2 3.6 - 5.2 meq/L    Chloride 102 98 - 108 meq/L    Carbon Dioxide, Total 22 22 - 32 meq/L    Anion Gap 8 4 - 12    Glucose 156 (H) 62 - 125 mg/dL    Urea Nitrogen 10 8 - 21 mg/dL    Creatinine 0.56 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.5 3.5 - 5.2 g/dL **Note De-Identified via Obfuscation** Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Bilirubin (Direct) 0.4 (H) 0.0 - 0.3 mg/dL    Calcium 10.4 (H) 8.9 - 10.2 mg/dL    Phosphate 3.9 2.5 - 4.5 mg/dL    AST (GOT) 18 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 20 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Uric Acid, Serum   Result Value Ref Range    Uric Acid 3.9 3.9 - 7.6 mg/dL   Comprehensive Metabolic Panel   Result Value Ref Range    Sodium 136 135 - 145 meq/L    Potassium 3.7 3.6 - 5.2 meq/L    Chloride 103 98 - 108 meq/L    Carbon Dioxide, Total 26 22 - 32 meq/L    Anion Gap 7 4 - 12    Glucose 101 62 - 125 mg/dL    Urea Nitrogen 5 (L) 8 - 21 mg/dL    Creatinine 0.37 (L) 0.51 - 1.18 mg/dL    Protein (Total) 8.1 6.0 - 8.2 g/dL    Albumin 3.6 3.5 - 5.2 g/dL    Bilirubin (Total) 0.7 0.2 - 1.3 mg/dL    Calcium 10.3 (H) 8.9 - 10.2 mg/dL    AST (GOT) 16 9 - 38 U/L    Alkaline Phosphatase (Total) 64 39 - 139 U/L    ALT (GPT) 18 10 - 64 U/L    eGFR by CKD-EPI 2021 &gt;60 &gt;59 mL/min/1.73_m2   Magnesium   Result Value Ref Range    Magnesium 1.5 (L) 1.8 - 2.4 mg/dL   Immunoglobulin G   Result Value Ref Range    Immunoglobulin G 3,373 (H) 610 - 1,616 mg/dL   Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 203.94 (H) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;1456.71 (H) 0.66 - 2.22   Protein Electrophoresis Reflexive Panel   Result Value Ref Range    Protein (Total) 7.8 6.0 - 8.2 g/dL     Albumin 3.7 3.5 - 4.9 g/dL    Alpha 1 0.2 0.1 - 0.3 g/dL    Alpha 2 0.7 0.3 - 0.8 g/dL    Beta 0.6 0.6 - 1.0 g/dL    Gamma 2.7 (H) 0.4 - 1.4 g/dL    Electrophoresis Interp: (A) NORPAT"
 }</t>
         </is>
       </c>
@@ -596,14 +584,8 @@
       <c r="G4" t="inlineStr">
         <is>
           <t>{
-  "kappa_flc": "1.45",
-  "lambda_flc": "0.73",
-  "kappa_lambda_ratio": "1.99",
-  "date_of_lab": "2021-12-01",
-  "evidence_sentences": [
-    "His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99."
-  ],
-  "source_document": "2021-12-15_00:00:00.000_Progress_Notes_91091"
+  "title": "2021-12-15_00:00:00.000_Progress_Notes_91091",
+  "content": "Type Unknown Blood   Test Request Status Unknown Pend   Bilirubin (Direct) Latest Ref Range: 0.0 - 0.3 mg/dL 0.1       ASSESSMENT AND PLAN     1. Malignancy: The patient has been treated with CyBorD (3/2019-11/2019, 4/2021-7/2021), Revlimid (12/2019-4/2020), RVd (4/20-5/20), dara-RVd (6/2020-4/2021), and KPD (8/2021-present). He has had radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).  His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99. His most recent imaging is several months old, and shows extensive disease. The patient will meet with the Aqua team attending tomorrow, and restaging will be ordered as part of the pretransplant workup.  2. Hematologic: We will monitor counts and transfuse as needed. The transfusion thresholds will be standard level of hematocrit less than 26% and platelets less than 10,000. No premeds are required.  3. Infectious Disease:  The patient will have standard infectious disease screenings and will be started on peri-transplant prophylaxis as per standard protocol. He will be switched from acyclovir to valacyclovir. **Note De-Identified via Obfuscation** 4: Extensive bone disease, risk for pathological fracture: Ortho consult to assess, specifically the lesions in his bilateral proximal humeri, left proximal femur, and right distal femur.     5: Fluids/Electrolytes/Nutrition: The patient has adequate oral intake. Multivitamin was ordered.     DISPOSITION     This patient is stable.  He is to keep appointment tomorrow to meet with the Kaiser Permanente Honolulu Clinic Asc attending, Dr. Golden Circle, wherein we will place orders for pre-transplant workup including bone marrow assessment.  We will also schedule weekly labs and weekly clinic visits between now and the  time of the patient's data review."
 }</t>
         </is>
       </c>
@@ -611,45 +593,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-06-25_00:00:00.000_Progress_Notes_91596</t>
+          <t>2021-12-23_00:00:00.000_Progress_Notes_91107</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>&lt;0.15</t>
-        </is>
-      </c>
+          <t>64.9</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>&gt;0.57</t>
+          <t>190</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-06-13</t>
+          <t>2019-03-XX</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22']</t>
+          <t>['#MM:  - Diagnoses in 3/2019. M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positive by immunofixation, and bone marrow showed myeloma.']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>{
-  "kappa_flc": "0.08",
-  "lambda_flc": "&lt;0.15",
-  "kappa_lambda_ratio": "&gt;0.57",
-  "date_of_lab": "2024-06-13",
-  "evidence_sentences": [
-    "Free Light Chains   Result Value Ref Range    Kappa Free Light Chain 0.08 (L) 0.76 - 6.83 mg/dL    Lambda Free Light Chain &lt;0.15 (L) 0.68 - 4.58 mg/dL    Kappa/Lambda FLC Ratio &gt;0.57 (L) 0.66 - 2.22"
-  ],
-  "source_document": "2024-06-25_00:00:00.000_Progress_Notes_91596"
+  "title": "2021-12-23_00:00:00.000_Progress_Notes_91107",
+  "content": "4.41 ml/min/mmHg/L    DL/VA-Pre 5.05 ml/min/mmHg/L    DL/VA-%Pred-Pre 114 %    HGB-Pre 12.9 gm/dL    FEV1/SVC-Pred 81 %    FEV1/SVC-Pre 90 %    FEV1/SVC-%Pred-Pre 110 %    O2 During Test      Oximetry Baseline      Oximetry End of Test      Oximetry Lowest      Pulse Rate Baseline      Pulse Rate End of Test      Pulse Rate Highest      Total Distance Walked      Total Minutes Walked          Assessment/Plan:    #MM:   - Diagnoses in 3/2019. M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positive by  immunofixation, and bone marrow showed myeloma.CT showed lytic lesions in the left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  - In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3. MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated with Revlimid (12/2019-4/2020), then RVd (4/20-5/20), then **Note De-Identified via Obfuscation** dara-RVd (6/2020-4/2021).   - From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed  axillary and retroperitonealadenopathy, as well as an increasing left skullmass.  - PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal"
 }</t>
         </is>
       </c>
@@ -657,41 +629,39 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021-12-23_00:00:00.000_Progress_Notes_91107</t>
+          <t>2021-12-27_00:00:00.000_Progress_Notes_91111</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>64.9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>20.78</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>86.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2019-03-XX</t>
+          <t>2021-06-XX</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['Diagnoses in 3/2019. M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positive by immunofixation, and bone marrow showed myeloma.']</t>
+          <t>['In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58.']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>{
-  "kappa_flc": "64.9",
-  "lambda_flc": null,
-  "kappa_lambda_ratio": "190",
-  "date_of_lab": "2019-03-XX",
-  "evidence_sentences": [
-    "Diagnoses in 3/2019. M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positive by immunofixation, and bone marrow showed myeloma."
-  ],
-  "source_document": "2021-12-23_00:00:00.000_Progress_Notes_91107"
+  "title": "2021-12-27_00:00:00.000_Progress_Notes_91111",
+  "content": "Magnesium   Result Value Ref Range    Magnesium 1.7 (L) 1.8 - 2.4 mg/dL   Lactate Dehydrogenase   Result Value Ref Range    Lactate Dehydrogenase 168 &lt;210 U/L       Assessment/Plan:    #MM:   - Diagnoses in 3/2019. M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.CT showed lytic lesions in the left fifth rib and sacrum.   Treated with CyBorD (3/2019-11/2019).  - In 11/2019 his M-spike was 0.6 with beta 2 microglobulin of 1.5. His M-spike went down to 0.3.MRI at this time showed pathological fractures of T3, T6, and T8, with multiple lesions in the skull, axial, and appendicular skeleton. The lesions in his bilateral proximal humeri were at risk for pathological fracture. Treated with Revlimid (12/2019-4/2020), then RVd (4/20-5/20), then dara-RVd (6/2020-4/2021).   - From 4/2021 to 7/2021, he went back on CyBorD. In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed axillary and retroperitonealadenopathy, as well as an increasingleft skullmass.  - PET/CT in **Note De-Identified via Obfuscation** 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRIof his bone marrow showeda 3.1 x  3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain, significant progressive metastatic disease, with innumerable new and enlarging"
 }</t>
         </is>
       </c>
@@ -699,41 +669,35 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-04-17_00:00:00.000_IMTX_Conference_Note_91586</t>
+          <t>2021-12-23_00:00:00.000_Progress_Notes_91107</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>&lt;9.81</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>&lt;1.91</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2021-12-15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['Latest Reference Range &amp; Units 04/08/24 07:15   C_Reactive Protein 0.0 - 10.0 mg/L 1.9   Kappa Free Light Chain 0.76 - 6.83 mg/dL &lt;9.81 (L)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;1.91 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  Unable to calculate.']</t>
+          <t>['Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72.']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>{
-  "kappa_flc": "&lt;9.81",
-  "lambda_flc": "&lt;1.91",
-  "kappa_lambda_ratio": null,
-  "date_of_lab": "2024-04-08",
-  "evidence_sentences": [
-    "Latest Reference Range &amp; Units 04/08/24 07:15   C_Reactive Protein 0.0 - 10.0 mg/L 1.9   Kappa Free Light Chain 0.76 - 6.83 mg/dL &lt;9.81 (L)   Lambda Free Light Chain 0.68 - 4.58 mg/dL &lt;1.91 (L)   Kappa/Lambda FLC Ratio 0.66 - 2.22  Unable to calculate."
-  ],
-  "source_document": "2024-04-17_00:00:00.000_IMTX_Conference_Note_91586"
+  "title": "2021-12-23_00:00:00.000_Progress_Notes_91107",
+  "content": "FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58. CT showed  axillary and retroperitonealadenopathy, as well as an increasing left skullmass.  - PET/CT in 8/2021 showed multiple new sites of disease, with 4.8cm enhancing frontoparietal skull mass. MRI of his bone marrow showed a 3.1 x 3.6 cm skull lesion with extension into the scalp and intracranial cavity with mass effect on the brain, significant progressive metastatic disease, with innumerable new and enlarging lesions. Lesions in the proximal left and right humerus, distal right femur, and proximal left femur are at risk of pathological fracture. The vertebral body of C2 had been nearly completely replaced, and there was a large soft tissue mass in the anterolateral left chest wall. At that time, he was switched to KPD (carfilzomib, pomalyst, and dexamethasone), which he has been receiving since. His last doses of Carfilzomib were 12/8-9. His last dose of decadron was 12/10. His last dose of Pomalyst was 12/14.  - Radiation therapy 3000 cGy to skull (8/2021-9/2021), and radiation therapy 800 cGy to bilat shoulders, pelvis, bilat hips (9/2021).   - Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72. Bone marrow 12/17 is negative by flow. Brain MRI on 12/18/21 shows improvement; left parietal bone lesion is now 2cm, with no mass effect on the brain. LP on 12/22 shows 0 unclassified cells  - Plan to start GCSF 1/8/22, and draw CD34 on 1/11/22    #Heme:   - Monitor counts and transfuse as needed. Standard"
 }</t>
         </is>
       </c>
@@ -741,12 +705,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-01-07_00:00:00.000_Progress_Notes_91124</t>
+          <t>2023-06-30_00:00:00.000_Progress_Notes_91265</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>64.9</t>
+          <t>65</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -766,21 +730,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['Diagnoses in 3/2019.M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total  protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.', 'At diagnosis, he had  a calcium of 9.7, an IgG of 5610, kappa lambda ratio of 190, total protein 10.7, albumin of 2.3.  UPEP was positive by  immunofixation.  Vitamin D of 10, kappa was 64.9, lambda 0.34, and his bone marrow showed myeloma.']</t>
+          <t>['Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>{
-  "kappa_flc": "64.9",
-  "lambda_flc": "0.34",
-  "kappa_lambda_ratio": "190",
-  "date_of_lab": "2019-03-XX",
-  "evidence_sentences": [
-    "Diagnoses in 3/2019.M-spike of 6,calcium of 9.7, an IgG of 5610,kappa FLC 64.9, kappa/lambda ratio of 190, total  protein 10.7, UPEP was positiveby immunofixation,and bone marrow showed myeloma.",
-    "At diagnosis, he had  a calcium of 9.7, an IgG of 5610, kappa lambda ratio of 190, total protein 10.7, albumin of 2.3.  UPEP was positive by  immunofixation.  Vitamin D of 10, kappa was 64.9, lambda 0.34, and his bone marrow showed myeloma."
-  ],
-  "source_document": "2022-01-07_00:00:00.000_Progress_Notes_91124"
+  "title": "2023-06-30_00:00:00.000_Progress_Notes_91265",
+  "content": "kappa M-spike 6 g/dL   - Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190      CYTOGENETICS (per outside report):  46,XY[20]     FLUORESCENCE IN SITU HYBRIDIZATION (per outside report):  Counts for the 17p FISH probe signals were within their normal reference range. This finding represents a NORMAL result. There were insufficient cells to analyze the remaining probe sets.     Dup(1q):             QNS  Del(13q):            QNS        t(4;14):                 QNS  L(93;79):               QNS  t(14;16):               QNS  t(14;20):               QNS    R-ISS STAGE: unknown (no B2M or FISH)      TREATMENT:    1.  CyBorD x 6 cycles, 3/2019 with VGPR (M-spike 0.3 g/dL)   - evaluated for stem cell transplant at Vibra Specialty Hospital Of Portland 11/2019, not pursued due to insurance  2.  Lenalidomide maintenance -&gt; PD in 4/2020  3.  RVD, 4/2020 - 6/2020 with PD  4.  RVD+daratumumab, 6/2020 - 4/2021 (break off of therapy in October 2020 due to Cuba infection)  4.  CyBorD, 4/2021 - 7/2021  5.  KPd, 7/2021  6.  Palliative radiation to the left skull 3000  cGy, right shoulder 800 Gy 9/1, left shoulder 800 Gy 9/2, upper pelvis, bilateral hips 800 Gy 9/3  7.  Mel200/ASCT, D0 = 1/21/2022   - pre-transplant labs: IgG kappa M-spike 0.1 g/dL and FLC ratio 1.72 on 12/15/2021   - mobilization with GCSF on 1/8/2022   - 11.4 x 10(6) CD34+ cells/kg collected 1/11 - 1/12/2022   - Mel 200 mg/m2 on 1/19/2022   - reinfusion of cells on 1/21/2022  8. Pomalidomide"
 }</t>
         </is>
       </c>
@@ -788,46 +745,35 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021-12-23_00:00:00.000_Progress_Notes_91107</t>
+          <t>2024-06-25_00:00:00.000_Progress_Notes_91596</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20.78</t>
+          <t>&lt;0.06 mg/dL</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>86.58</t>
-        </is>
-      </c>
+          <t>&lt;1.61 mg/dL</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2021-06-XX</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58.', 'In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58.']</t>
+          <t>['Labs from 4/8/2024: Kappa &lt;0.06 mg/dL, Lambda &lt;1.61 mg/dL']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>{
-  "kappa_flc": "20.78",
-  "lambda_flc": "0.24",
-  "kappa_lambda_ratio": "86.58",
-  "date_of_lab": "2021-06-XX",
-  "evidence_sentences": [
-    "In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58.",
-    "In 6/2021, he had kappa FLC of 20.78, lambda FLC of 0.24, kappa/lambda ratio of 86.58."
-  ],
-  "source_document": "2021-12-23_00:00:00.000_Progress_Notes_91107"
+  "title": "2024-06-25_00:00:00.000_Progress_Notes_91596",
+  "content": "g/dL)   - evaluated for stem cell transplant at Twin Cities Community Hospital 11/2019, not pursued due to insurance  2.  Lenalidomide maintenance -&gt; PD in 4/2020  3.  RVD, 4/2020 - 6/2020 with PD  4.  RVD+daratumumab, 6/2020 - 4/2021 (break off of therapy in October 2020 due to COVID19 infection)  4.  CyBorD, 4/2021 - 7/2021  5.  KPd, 7/2021  6.  Palliative radiation to the left skull 3000 cGy, right shoulder 800 Gy 9/1, left shoulder 800 Gy 9/2, upper pelvis, bilateral hips 800 Gy 9/3  7.  Mel200/ASCT, D0 = 1/21/2022   - pre-transplant labs: IgG kappa M-spike 0.1 g/dL and FLC ratio 1.61 on 09/60/4540   - mobilization with GCSF on 1/8/2022   - 11.4 x 10(6) CD34+ cells/kg collected 1/11 - 1/12/2022   - Mel 200 mg/m2 on 1/19/2022   - reinfusion of cells on 1/21/2022  8. Pomalidomide maintenance, started 6/10/2022 - 11/2022  9.  KPd, started 11/2022  10.  Palliative radiation to the Clivus for 6th nerve palsy x 10 fractions, completed 12/8/2022  9.  KPd, started 11/2022 - 6/2023  10.  Palliative radiation to the Clivus for 6th nerve palsy x 10 fractions, completed 12/8/2022  11.  PACE, C1 8/10/2023  12.  XRT, 10/19/2023, 800 cGy to the right rib in one fraction  13.  XRT, 11/10/2023, right pelvis and right tibia  14.  Doxorubicin, bortezomib, dexamethasone, 11/13/2023  15.  Isatuximab, carfilzomib, dexamethasone - 12/27/2023 - 1/17/2024 with no **Note De-Identified via Obfuscation** response  16.  Talquetamab bridging, 1/24/2024 - 2/16/2024  17.  XRT to L2-L4 with 8 Gy in 1 fraction on 1/31/2024  18.  Ciltacabtagene autoleucel (Carvykti), D0 = 3/11/2024   - collection of T-cells on 12/7/2023 but out of spec due to low cell count (0.1 x 10(6) cells/kg)   - second apheresis for T-cells on 1/23/2024   - lymphodepleting chemotherapy with cyclophosphamide 300 mg/m2/day and fludarabine 30 mg/m2/day for 3 days, from 3/6/2024 - 3/8/2024   - Cilta-cel infusion, 0.5 to 1 x 10(6) CAR-positive viable T-cells on 3/11/2024   -  Grade 1 CRS, no treatment required   - Post-CAR T course notable for neutropenic fever and non-neutropenic fever, c.diff colitis      RESPONSE TO THERAPY: VGPR (bone marrow negative, MRD pending)    Labs from 4/8/2024: Kappa &lt;0.06 mg/dL, Lambda &lt;1.61 mg/dL, SPEP with M-spike 0.3 g/dL, IgG kappa  Bone marrow biopsy 4/8/2024: Limited marrow biopsy with no morphologic or flow cytometric evidence of residual plasma cell neoplasm      ADJUNCTIVE THERAPIES:  1.  Zometa       INTERVAL HISTORY    Mr. Jayshaun Ara returns to the Vibra Hospital Of Central Dakotas myeloma clinic today for post-CAR T-cell follow-up.  He is now D+106 from Cilta-cel infusion.    He reports that he feels well.  He continues to follow up locally with Dr. Dreama Saa, including having his labs checked weekly.  He has not needed any transfusions and has had no infection.  He has had no diarrhea.      ECOG PERFORMANCE STATUS  ECOG:  (1) Restricted in physically strenuous activity, ambulatory and able to do work of light nature        REVIEW OF SYSTEMS  Except for those"
 }</t>
         </is>
       </c>
@@ -835,222 +781,39 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-01-07_00:00:00.000_Progress_Notes_91124</t>
+          <t>2024-04-17_00:00:00.000_Progress_Notes_91591</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>16.18</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>&lt;0.15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>&gt;115.57</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2021-12-15</t>
+          <t>2024-02-22</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['12/15: SPEP  IgG kappa M spike of 0.1, Kappa light chain  1.24, lambda light chain  0.72. Kappa/ lambda ratio 1.72, beta 2 microglobulin 1.3', '12/15: Peripheral blood flow cytometry  no evidence of abnormal plasma cells']</t>
+          <t>['2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57.']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>{
-  "kappa_flc": "1.24",
-  "lambda_flc": "0.72",
-  "kappa_lambda_ratio": "1.72",
-  "date_of_lab": "2021-12-15",
-  "evidence_sentences": [
-    "12/15: SPEP  IgG kappa M spike of 0.1, Kappa light chain  1.24, lambda light chain  0.72. Kappa/ lambda ratio 1.72, beta 2 microglobulin 1.3",
-    "12/15: Peripheral blood flow cytometry  no evidence of abnormal plasma cells"
-  ],
-  "source_document": "2022-01-07_00:00:00.000_Progress_Notes_91124"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2022-02-22_00:00:00.000_Progress_Notes_91240</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2021-11-09</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>['baseline labs showing an IgG kappa monoclonal protein of 6 g/dL, with kappa light chain of 65, lambda of 0.34 and ratio of 190.']</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "65",
-  "lambda_flc": "0.34",
-  "kappa_lambda_ratio": "190",
-  "date_of_lab": "2021-11-09",
-  "evidence_sentences": [
-    "baseline labs showing an IgG kappa monoclonal protein of 6 g/dL, with kappa light chain of 65, lambda of 0.34 and ratio of 190."
-  ],
-  "source_document": "2022-02-22_00:00:00.000_Progress_Notes_91240"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2024-06-25_00:00:00.000_Progress_Notes_91596</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>&lt;0.06 mg/dL</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>&lt;1.61 mg/dL</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2024-04-08</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>['Labs from 4/8/2024: Kappa &lt;0.06 mg/dL, Lambda &lt;1.61 mg/dL, SPEP with M-spike 0.3 g/dL, IgG kappa']</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "&lt;0.06 mg/dL",
-  "lambda_flc": "&lt;1.61 mg/dL",
-  "kappa_lambda_ratio": null,
-  "date_of_lab": "2024-04-08",
-  "evidence_sentences": [
-    "Labs from 4/8/2024: Kappa &lt;0.06 mg/dL, Lambda &lt;1.61 mg/dL, SPEP with M-spike 0.3 g/dL, IgG kappa"
-  ],
-  "source_document": "2024-06-25_00:00:00.000_Progress_Notes_91596"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2024-04-17_00:00:00.000_Progress_Notes_91591</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>16.18</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>&lt;0.15</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>&gt;115.57</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2024-02-22</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>['2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57. SPEP with IgG kappa, M-spike  1.0; previous monoclonal kappa free light chain not detected.']</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "16.18",
-  "lambda_flc": "&lt;0.15",
-  "kappa_lambda_ratio": "&gt;115.57",
-  "date_of_lab": "2024-02-22",
-  "evidence_sentences": [
-    "2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57. SPEP with IgG kappa, M-spike  1.0; previous monoclonal kappa free light chain not detected."
-  ],
-  "source_document": "2024-04-17_00:00:00.000_Progress_Notes_91591"
-}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2022-02-25_00:00:00.000_BMT_Conference_Note_91246</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2021-12-20</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>['SPEP on 12/20/2021 showed M-spike of 0.1. Free light chains: kappa free light chain was 1.24 and kappa/lambda ratio was 1.72.']</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>{
-  "kappa_flc": "1.24",
-  "lambda_flc": null,
-  "kappa_lambda_ratio": "1.72",
-  "date_of_lab": "2021-12-20",
-  "evidence_sentences": [
-    "SPEP on 12/20/2021 showed M-spike of 0.1. Free light chains: kappa free light chain was 1.24 and kappa/lambda ratio was 1.72."
-  ],
-  "source_document": "2022-02-25_00:00:00.000_BMT_Conference_Note_91246"
+  "title": "2024-04-17_00:00:00.000_Progress_Notes_91591",
+  "content": "complications and instead gave doxorubicine, bortezomib, and dexamethatsone starting 11/2023 with goal of facilitating arrival to Willoughby Surgery Center LLC team for CAR-T cell therapy.    IMMUNOTHERAPY HISTORY       T CELL COLLECTION     Robertt underwent apheresis for T cell collection on 12/7/23 without incident. Unfortunately, the original collected cells were out of specification due to low cell count (0.1 x 10^6/kg, clinical specification target dose is 0.5-1.0 x 10^6/kg). A second apheresis attempt for T cell collection was completed on 1/23/24.    BRIDGING CHEMOTHERAPY  Kingjames received isatuximab/carfilzomib/dexamethasone for bridging chemotherapy from 12/27/23-1/17/24, with no response. He then received Talquetamab from 1/24-2/16/24. Additionally received XRT to L2-L4 with 8Gy in 1 fraction on 1/31/24.    LYMPHODEPLETING CHEMOTHERAPY     Cyclophosphamide 300 mg/m2 daily for 3 days from 3/6/24-3/8/24  Fludarabine 30 mg/m2 daily for 3 days from 3/6/24-3/8/24.      CAR T CELL INFUSION  Nowell received CAR T cell therapy with ciltacabtagene autoleucel (Carvykti). Received a total of 0.5 to 1 x 10^6 CAR-positive viable T cells, infused on 3/11/24.    DISEASE STATUS     Pre immunotherapy disease staging:  Multiple myeloma labs:   11/28/23: kappa free light chain (KFLC) 129.54mg /dL, lambda free light chain (LFLC) 15mg /dL, kappa/lambda ratio &gt;914.29. SPEP with IgG kappa monoclonal component, M-spike 2.0g/dL; kappa monoclonal free light chain, M-spike too small to quantify (TSTQ).   1/16/24: KFLC 242.66, LFLC &lt;0.15, kappa/lambda ratio &gt;1733.29. SPEP with IgG kappa, M-spike 2.8; KFLC, M-spike TSTQ. **Note De-Identified via Obfuscation** 1/24/24: KFLC 203.94, LFLC &lt;0.15, ratio &gt;1456.71. SPEP IgG kappa, M-spike 2.6; KFLC, M-spike TSTQ.  2/22/24: KFLC 16.18, LFLC &lt;0.15, kappa/lambda ratio &gt;115.57. SPEP with IgG kappa, M-spike  1.0; previous monoclonal kappa free light chain not detected.    Skeletal imaging  Osseous Survey 12/6/23: multiple lytic lesions throughout the axial and appendicular skeleton, in keeping with multiple myeloma. Several chronic thoracolumbar compression fractures with minimal loss of height.  MRI L spine 1/24/24: large ventral epidural soft tissue tumor extending from L2 through L4, Bilsky grade 3, with severe central stenosis at L3-L4 with complete effacement of the thecal sac and clumping of the cauda equina nerve roots likely reflecting a component of arachnoiditis. Tumor also extends into L3-4 and L4-5 neural foramina contributing to moderate to severe foraminal stenosis. Bilsky grade 1B ventral epidural soft tissue tumors at L1 and L2.  MRI Pelvis 1/24/24: Marrow replacing lesion in the left sacral ala extending into the left S1 neural foramen and contacting the exiting nerve root.   CT Full Spine 1/25/24: pathologic compression fractures of T12, L1, and L2. Pathologic fracture of the right L3 transverse process. Large soft tissue mass in the L2 and L4 epidural space. Soft tissue mas involving left sacral ala with"
 }</t>
         </is>
       </c>
